--- a/lurenjia/src/main/resources/excelTemplate/testTemplate.xlsx
+++ b/lurenjia/src/main/resources/excelTemplate/testTemplate.xlsx
@@ -34,13 +34,13 @@
     <t>年龄</t>
   </si>
   <si>
-    <t>名字</t>
+    <t>{.age}</t>
   </si>
   <si>
     <t>{time}</t>
   </si>
   <si>
-    <t>{.age}</t>
+    <t>名字</t>
   </si>
   <si>
     <t>{.name}</t>
@@ -977,7 +977,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
